--- a/build-test/tables/activity.xlsx
+++ b/build-test/tables/activity.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Activity" sheetId="1" r:id="rId1"/>
+    <sheet name="activity" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -846,7 +846,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
